--- a/Bin/resource/excel/Map.xlsx
+++ b/Bin/resource/excel/Map.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\ArkGameFrame\Bin\Server\DataConfig\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\ARK.net_header\Bin\resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataNode" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="138">
   <si>
     <t>Id</t>
   </si>
@@ -439,25 +439,23 @@
     <t>WinCount</t>
   </si>
   <si>
-    <t>object</t>
-  </si>
-  <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -469,148 +467,20 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -619,57 +489,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,7 +515,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1037,229 +859,230 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="13" t="b">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="13" t="b">
+      <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="b">
+      <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="13" t="b">
+      <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="13" t="b">
+      <c r="F3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="13" t="b">
+      <c r="G3" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="13" t="b">
+      <c r="H3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13" t="b">
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="13" t="b">
+      <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="13" t="b">
+      <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="13" t="b">
+      <c r="F5" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="13" t="b">
+      <c r="G5" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="13" t="b">
+      <c r="H5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="13" t="b">
+      <c r="B6" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="13" t="b">
+      <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="13" t="b">
+      <c r="D6" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="13" t="b">
+      <c r="E6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="13" t="b">
+      <c r="F6" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="13" t="b">
+      <c r="G6" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="13" t="b">
+      <c r="H6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8" t="b">
+      <c r="B7" t="b">
         <v>0</v>
       </c>
-      <c r="C7" s="8" t="b">
+      <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="8" t="b">
+      <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="8" t="b">
+      <c r="E7" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="8" t="b">
+      <c r="F7" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="8" t="b">
+      <c r="G7" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="8" t="b">
+      <c r="H7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3864,13 +3687,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J7 F8 H8 F1:F4 F5:F6 F109:F1048576 H1:H4 H5:H6 H109:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -3878,171 +3695,155 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="9.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="19" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9" style="3"/>
-    <col min="13" max="14" width="12.625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="14" style="3" customWidth="1"/>
-    <col min="16" max="16" width="9" style="3"/>
-    <col min="17" max="17" width="16.5" style="3" customWidth="1"/>
-    <col min="18" max="18" width="14" style="3" customWidth="1"/>
-    <col min="19" max="20" width="16.5" style="3" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="13" max="14" width="12.625" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="17" max="17" width="16.5" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="20" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="b">
+      <c r="B3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="b">
+      <c r="B7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="F9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 D10:F10 G10 G1:G7 G11:G1048576 A4:B6 D1:F7 D11:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B8 C8 C9 E9 F9 M10 N10 M1:M9 M11:M1048576 N1:N9 N11:N1048576" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B9 L10 A8:A9 L1:L9 L11:L1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
-      <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C1:C7 C11:C16374 A2:B3 B16375:C1048576" xr:uid="{00000000-0002-0000-0100-000003000000}">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
